--- a/Journaux_de_travail/Gabriel.xlsx
+++ b/Journaux_de_travail/Gabriel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t xml:space="preserve">Recherche d'icones </t>
+  </si>
+  <si>
+    <t>implémente navigation + création des différentes vues</t>
   </si>
 </sst>
 </file>
@@ -67,9 +70,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -155,25 +165,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,14 +503,15 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="1025" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="3" customWidth="1"/>
+    <col min="3" max="1025" width="8.85546875" style="3" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
@@ -513,197 +525,203 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>42997</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>3.5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>43004</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>43008</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>43008</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>43011</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>43011</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="7">
+        <v>43016</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="11">
         <f>SUM(C5:C31)</f>
-        <v>10.5</v>
+        <v>15.25</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Gabriel.xlsx
+++ b/Journaux_de_travail/Gabriel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -63,6 +63,21 @@
   </si>
   <si>
     <t>implémente navigation + création des différentes vues</t>
+  </si>
+  <si>
+    <t>spécification protocol client-serveur</t>
+  </si>
+  <si>
+    <t>prise en main de spring</t>
+  </si>
+  <si>
+    <t>mise en place test de l'api côté client</t>
+  </si>
+  <si>
+    <t>recherche authentification côté client</t>
+  </si>
+  <si>
+    <t>essai communication client-serveur</t>
   </si>
 </sst>
 </file>
@@ -165,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -185,6 +200,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15424E-41D4-4142-99D2-19894996175B}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,29 +634,59 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="7">
+        <v>43018</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="7">
+        <v>43032</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="7">
+        <v>43038</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="7">
+        <v>43039</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="7">
+        <v>43046</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
@@ -721,7 +769,7 @@
       </c>
       <c r="C32" s="11">
         <f>SUM(C5:C31)</f>
-        <v>15.25</v>
+        <v>27.25</v>
       </c>
     </row>
   </sheetData>

--- a/Journaux_de_travail/Gabriel.xlsx
+++ b/Journaux_de_travail/Gabriel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Dropbox\heig\pdg\Journaux_de_travail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -78,6 +78,21 @@
   </si>
   <si>
     <t>essai communication client-serveur</t>
+  </si>
+  <si>
+    <t>implémentation protocole côté client</t>
+  </si>
+  <si>
+    <t>amélioration api (gestion automatique du token d'authentification)</t>
+  </si>
+  <si>
+    <t>fix bug token qui ne se serlialisait pas</t>
+  </si>
+  <si>
+    <t>fix bug windows path</t>
+  </si>
+  <si>
+    <t>fix conflicts pour merge branch sur la principale</t>
   </si>
 </sst>
 </file>
@@ -520,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA15424E-41D4-4142-99D2-19894996175B}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,33 +700,63 @@
         <v>17</v>
       </c>
       <c r="C16" s="9">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="7">
+        <v>43047</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="A18" s="7">
+        <v>43048</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>43048</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="7">
+        <v>43049</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.75</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
+      <c r="A21" s="7">
+        <v>43049</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -769,7 +814,7 @@
       </c>
       <c r="C32" s="11">
         <f>SUM(C5:C31)</f>
-        <v>27.25</v>
+        <v>46.25</v>
       </c>
     </row>
   </sheetData>
